--- a/Data_science_outputs/200pop/avg_analysis/avg_analysis_4.xlsx
+++ b/Data_science_outputs/200pop/avg_analysis/avg_analysis_4.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8122.722850445209</v>
+        <v>6543.656484598552</v>
       </c>
       <c r="C3" t="n">
         <v>4684.050992523149</v>
       </c>
       <c r="D3" t="n">
-        <v>1775.107972123285</v>
+        <v>270.6623123287663</v>
       </c>
       <c r="E3" t="n">
         <v>1620.886383346648</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2616.729045933704</v>
+        <v>3019.34496453037</v>
       </c>
       <c r="C4" t="n">
         <v>2321.935810864805</v>
       </c>
       <c r="D4" t="n">
-        <v>1548.490904706547</v>
+        <v>94.56333487926334</v>
       </c>
       <c r="E4" t="n">
         <v>940.0347166132235</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2638.11693424658</v>
+        <v>2058.906273972604</v>
       </c>
       <c r="C5" t="n">
         <v>1375.0381</v>
       </c>
       <c r="D5" t="n">
-        <v>71.53469589041104</v>
+        <v>76.18662739726032</v>
       </c>
       <c r="E5" t="n">
         <v>247.7824986301366</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6532.17337191781</v>
+        <v>3768.334294520545</v>
       </c>
       <c r="C6" t="n">
         <v>2916.676316666667</v>
       </c>
       <c r="D6" t="n">
-        <v>183.5318801369859</v>
+        <v>188.68975479452</v>
       </c>
       <c r="E6" t="n">
         <v>641.5140739726013</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7352.396912328768</v>
+        <v>6107.436147945209</v>
       </c>
       <c r="C7" t="n">
         <v>3943.920933333333</v>
       </c>
       <c r="D7" t="n">
-        <v>1797.534556164384</v>
+        <v>271.2249986301366</v>
       </c>
       <c r="E7" t="n">
         <v>1520.235813698631</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10938.67931712328</v>
+        <v>8212.240854109599</v>
       </c>
       <c r="C8" t="n">
         <v>6322.26102500001</v>
       </c>
       <c r="D8" t="n">
-        <v>3434.890430136987</v>
+        <v>356.041101369863</v>
       </c>
       <c r="E8" t="n">
         <v>2590.116056849316</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12794.75276438357</v>
+        <v>12582.76608219179</v>
       </c>
       <c r="C9" t="n">
         <v>9369.086266666673</v>
       </c>
       <c r="D9" t="n">
-        <v>3507.780010958912</v>
+        <v>432.6294383561631</v>
       </c>
       <c r="E9" t="n">
         <v>3161.976202739728</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>11696720.9046411</v>
+        <v>9422865.337821921</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>6745033.429233338</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5819142893341727</v>
+        <v>0.7109339862006124</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2556155.479857535</v>
+        <v>389753.7297534242</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2185360752553553</v>
+        <v>0.04136254905278261</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>2334076.392019178</v>
       </c>
       <c r="G13" t="n">
-        <v>0.199549635410472</v>
+        <v>0.247703464746605</v>
       </c>
     </row>
   </sheetData>
